--- a/data_management/management/4. income imputation/output/VEN_income_imputation.xlsx
+++ b/data_management/management/4. income imputation/output/VEN_income_imputation.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB469948\OneDrive - WBG\LAC\Venezuela\Income Imputation\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2791CCE050C1045FA60348C99EDFBF03D8843F55" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="income in official estimates" sheetId="10" r:id="rId1"/>
@@ -25,23 +19,16 @@
     <sheet name="pensions_imp_chained_eq" sheetId="21" r:id="rId10"/>
     <sheet name="othernonlinc_imp_chained_eq" sheetId="23" r:id="rId11"/>
     <sheet name="poverty_cpi_imf" sheetId="4" r:id="rId12"/>
-    <sheet name="poverty_cpi_cendas_basket" sheetId="17" r:id="rId13"/>
-    <sheet name="poverty_cpi_cendas_food" sheetId="18" r:id="rId14"/>
+    <sheet name="poverty_cpi_imf2" sheetId="24" r:id="rId13"/>
+    <sheet name="poverty_cpi_cendas_basket" sheetId="17" r:id="rId14"/>
+    <sheet name="poverty_cpi_cendas_food" sheetId="18" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="153">
   <si>
     <t>Employed individuals that reported they did not know if they received labor income</t>
   </si>
@@ -668,12 +655,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,155 +802,164 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -972,14 +968,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -32698,7 +32686,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -32722,11 +32710,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -32783,11 +32771,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -32844,11 +32832,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -32905,11 +32893,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -32947,7 +32935,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -33199,11 +33187,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -33260,11 +33248,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -33321,11 +33309,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -33382,11 +33370,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -33443,11 +33431,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -33485,7 +33473,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -33737,11 +33725,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -33798,11 +33786,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -33859,11 +33847,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -33920,11 +33908,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -33981,11 +33969,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -34042,11 +34030,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -34084,7 +34072,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -34260,11 +34248,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -34321,11 +34309,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -34382,11 +34370,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -34424,7 +34412,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -34676,11 +34664,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -34737,11 +34725,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -34798,11 +34786,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -34859,11 +34847,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -34920,11 +34908,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -34962,7 +34950,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -35214,11 +35202,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -35275,11 +35263,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -35336,11 +35324,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -35397,11 +35385,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -35458,11 +35446,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="true" noChangeArrowheads="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -35500,7 +35488,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -35952,26 +35940,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="23"/>
-    <col min="2" max="2" width="38.1796875" style="33" customWidth="1"/>
-    <col min="3" max="5" width="43.6328125" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" style="33" customWidth="true"/>
+    <col min="3" max="5" width="43.6328125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="33" customFormat="true">
       <c r="A2" s="35"/>
       <c r="B2" s="33" t="s">
         <v>96</v>
@@ -35986,7 +35974,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="80.5" customHeight="true">
       <c r="A3" s="32">
         <v>2014</v>
       </c>
@@ -36000,7 +35988,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="80.5" customHeight="true">
       <c r="A4" s="32">
         <v>2015</v>
       </c>
@@ -36015,7 +36003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="80.5" customHeight="true">
       <c r="A5" s="32">
         <v>2016</v>
       </c>
@@ -36028,7 +36016,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="107" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="107" customHeight="true">
       <c r="A6" s="32">
         <v>2017</v>
       </c>
@@ -36043,7 +36031,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="89" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="89" customHeight="true">
       <c r="A7" s="32">
         <v>2018</v>
       </c>
@@ -36056,7 +36044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="B11" s="34"/>
     </row>
   </sheetData>
@@ -36071,20 +36059,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="13" width="10.1796875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" customWidth="true"/>
+    <col min="2" max="13" width="10.1796875" style="23" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -36099,7 +36087,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" s="12"/>
       <c r="B2" s="56" t="s">
         <v>61</v>
@@ -36118,7 +36106,7 @@
       <c r="L2" s="56"/>
       <c r="M2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" s="16"/>
       <c r="B3" s="11" t="s">
         <v>63</v>
@@ -36157,7 +36145,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
@@ -36174,7 +36162,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
@@ -36191,7 +36179,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
@@ -36208,7 +36196,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
@@ -36225,7 +36213,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
@@ -36242,7 +36230,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" s="13">
         <v>2019</v>
       </c>
@@ -36259,12 +36247,12 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="B13" s="19" t="s">
         <v>63</v>
       </c>
@@ -36284,7 +36272,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -36313,7 +36301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -36342,7 +36330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="23" customFormat="true">
       <c r="A16"/>
       <c r="B16" s="8" t="e">
         <f>((B15/B14)-1)*100</f>
@@ -36369,12 +36357,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="23" customFormat="true">
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="23" customFormat="true">
       <c r="A19"/>
       <c r="B19" s="19" t="s">
         <v>63</v>
@@ -36395,7 +36383,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="23" customFormat="true">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -36424,7 +36412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="23" customFormat="true">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -36453,7 +36441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="23" customFormat="true">
       <c r="A22"/>
       <c r="B22" s="8" t="e">
         <f>((B21/B20)-1)*100</f>
@@ -36480,12 +36468,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="23" customFormat="true">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="23" customFormat="true">
       <c r="A25"/>
       <c r="B25" s="19" t="s">
         <v>63</v>
@@ -36506,7 +36494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="23" customFormat="true">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -36535,7 +36523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="23" customFormat="true">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -36564,7 +36552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="23" customFormat="true">
       <c r="A28"/>
       <c r="B28" s="8" t="e">
         <f>(B27/B26-1)*100</f>
@@ -36591,12 +36579,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="23" customFormat="true">
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="23" customFormat="true">
       <c r="A31"/>
       <c r="B31" s="19" t="s">
         <v>63</v>
@@ -36617,7 +36605,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="23" customFormat="true">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -36646,7 +36634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="23" customFormat="true">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -36675,7 +36663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="23" customFormat="true">
       <c r="A34"/>
       <c r="B34" s="8" t="e">
         <f>(B33/B32-1)*100</f>
@@ -36702,12 +36690,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="23" customFormat="true">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="23" customFormat="true">
       <c r="A37"/>
       <c r="B37" s="19" t="s">
         <v>63</v>
@@ -36728,7 +36716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="23" customFormat="true">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -36757,7 +36745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="23" customFormat="true">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -36786,7 +36774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="23" customFormat="true">
       <c r="A40"/>
       <c r="B40" s="8" t="e">
         <f>(B39/B38-1)*100</f>
@@ -36813,12 +36801,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="23" customFormat="true">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="23" customFormat="true">
       <c r="A43"/>
       <c r="B43" s="19" t="s">
         <v>63</v>
@@ -36839,7 +36827,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="23" customFormat="true">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -36868,7 +36856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="23" customFormat="true">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -36897,7 +36885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="23" customFormat="true">
       <c r="A46"/>
       <c r="B46" s="8" t="e">
         <f>(B45/B44-1)*100</f>
@@ -36924,10 +36912,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="23" customFormat="true">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="23" customFormat="true">
       <c r="A49"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -36936,7 +36924,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="23" customFormat="true">
       <c r="A50"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -36945,7 +36933,7 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" s="23" customFormat="true">
       <c r="A51"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -36954,7 +36942,7 @@
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" s="23" customFormat="true">
       <c r="A52"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -36975,20 +36963,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="13" width="10.1796875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="true"/>
+    <col min="2" max="13" width="10.1796875" style="23" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -37003,7 +36991,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" s="12"/>
       <c r="B2" s="56" t="s">
         <v>61</v>
@@ -37022,7 +37010,7 @@
       <c r="L2" s="56"/>
       <c r="M2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" s="16"/>
       <c r="B3" s="11" t="s">
         <v>63</v>
@@ -37061,7 +37049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" s="21" t="s">
         <v>11</v>
       </c>
@@ -37078,7 +37066,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" s="21" t="s">
         <v>12</v>
       </c>
@@ -37095,7 +37083,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
@@ -37112,7 +37100,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" s="13">
         <v>2019</v>
       </c>
@@ -37129,12 +37117,12 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="B11" s="19" t="s">
         <v>63</v>
       </c>
@@ -37154,7 +37142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -37183,7 +37171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -37212,7 +37200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" s="23" customFormat="true">
       <c r="A14"/>
       <c r="B14" s="8" t="e">
         <f>((B13/B12)-1)*100</f>
@@ -37239,12 +37227,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="23" customFormat="true">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" s="23" customFormat="true">
       <c r="A17"/>
       <c r="B17" s="19" t="s">
         <v>63</v>
@@ -37265,7 +37253,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="23" customFormat="true">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -37294,7 +37282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="23" customFormat="true">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -37323,7 +37311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="23" customFormat="true">
       <c r="A20"/>
       <c r="B20" s="8" t="e">
         <f>((B19/B18)-1)*100</f>
@@ -37350,12 +37338,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="23" customFormat="true">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" s="23" customFormat="true">
       <c r="A23"/>
       <c r="B23" s="19" t="s">
         <v>63</v>
@@ -37376,7 +37364,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="23" customFormat="true">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -37405,7 +37393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="23" customFormat="true">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -37434,7 +37422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="23" customFormat="true">
       <c r="A26"/>
       <c r="B26" s="8" t="e">
         <f>(B25/B24-1)*100</f>
@@ -37461,12 +37449,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="23" customFormat="true">
       <c r="A28" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" s="23" customFormat="true">
       <c r="A29"/>
       <c r="B29" s="19" t="s">
         <v>63</v>
@@ -37487,7 +37475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="23" customFormat="true">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -37516,7 +37504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="23" customFormat="true">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -37545,7 +37533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="23" customFormat="true">
       <c r="A32"/>
       <c r="B32" s="8" t="e">
         <f>(B31/B30-1)*100</f>
@@ -37572,10 +37560,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="23" customFormat="true">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" s="23" customFormat="true">
       <c r="A35"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -37584,7 +37572,7 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="23" customFormat="true">
       <c r="A36"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -37593,7 +37581,7 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="23" customFormat="true">
       <c r="A37"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -37602,7 +37590,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
     </row>
-    <row r="38" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="23" customFormat="true">
       <c r="A38"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -37611,10 +37599,10 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="40" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="23" customFormat="true">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" s="23" customFormat="true">
       <c r="A41"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -37623,7 +37611,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="23" customFormat="true">
       <c r="A42"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -37632,7 +37620,7 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="23" customFormat="true">
       <c r="A43"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -37641,7 +37629,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
     </row>
-    <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="23" customFormat="true">
       <c r="A44"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -37650,10 +37638,10 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="23" customFormat="true">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" s="23" customFormat="true">
       <c r="A47"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -37662,7 +37650,7 @@
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="23" customFormat="true">
       <c r="A48"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -37671,7 +37659,7 @@
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="23" customFormat="true">
       <c r="A49"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -37680,7 +37668,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="23" customFormat="true">
       <c r="A50"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -37701,27 +37689,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="2" width="10" style="23" customWidth="1"/>
-    <col min="3" max="5" width="8.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="true"/>
+    <col min="2" max="2" width="10" style="23" customWidth="true"/>
+    <col min="3" max="5" width="8.81640625" style="23" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="9.36328125" style="58" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="B2" s="22">
         <v>2014</v>
       </c>
@@ -37734,11 +37722,11 @@
       <c r="E2" s="23">
         <v>2017</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -37754,11 +37742,11 @@
       <c r="E3" s="8">
         <v>90.035586693117025</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="59">
         <v>99.594641647296513</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -37774,11 +37762,11 @@
       <c r="E4" s="8">
         <v>61.852699077126118</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="59">
         <v>99.131144722416138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -37794,11 +37782,11 @@
       <c r="E5" s="8">
         <v>56.325287714504746</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -37814,11 +37802,11 @@
       <c r="E6" s="8">
         <v>32.619429025017489</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -37834,16 +37822,16 @@
       <c r="E7" s="8">
         <v>17.790482244747231</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="B10" s="22">
         <v>2014</v>
       </c>
@@ -37856,11 +37844,11 @@
       <c r="E10" s="23">
         <v>2017</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -37876,11 +37864,11 @@
       <c r="E11" s="8">
         <v>90.292768757412915</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="59">
         <v>99.825159681329595</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -37896,11 +37884,11 @@
       <c r="E12" s="8">
         <v>63.738711395910322</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="59">
         <v>99.615035126309692</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -37916,11 +37904,11 @@
       <c r="E13" s="8">
         <v>57.446410435735785</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -37936,11 +37924,11 @@
       <c r="E14" s="8">
         <v>32.990209910605458</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -37956,16 +37944,16 @@
       <c r="E15" s="8">
         <v>16.906090837965156</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="B18" s="22">
         <v>2014</v>
       </c>
@@ -37978,11 +37966,11 @@
       <c r="E18" s="23">
         <v>2017</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -37998,11 +37986,11 @@
       <c r="E19" s="8">
         <v>93.268372116285605</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="59">
         <v>99.908862406731487</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -38018,11 +38006,11 @@
       <c r="E20" s="8">
         <v>68.616367500739074</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="59">
         <v>99.79914085563162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -38038,11 +38026,11 @@
       <c r="E21" s="8">
         <v>63.453676103118553</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -38058,11 +38046,11 @@
       <c r="E22" s="8">
         <v>38.184478309489272</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -38078,16 +38066,16 @@
       <c r="E23" s="8">
         <v>20.416758984808837</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="B26" s="22">
         <v>2014</v>
       </c>
@@ -38100,11 +38088,11 @@
       <c r="E26" s="23">
         <v>2017</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -38120,11 +38108,11 @@
       <c r="E27" s="31">
         <v>92.983734232687027</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="60">
         <v>99.643944970577081</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -38140,11 +38128,11 @@
       <c r="E28" s="31">
         <v>67.207138749299901</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="60">
         <v>99.196210761855994</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -38160,11 +38148,11 @@
       <c r="E29" s="31">
         <v>61.858240439329585</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="60">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -38180,11 +38168,11 @@
       <c r="E30" s="31">
         <v>35.403684063370989</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="60">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -38200,16 +38188,16 @@
       <c r="E31" s="31">
         <v>18.507870087152991</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="60">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="A33" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34">
       <c r="B34" s="22">
         <v>2014</v>
       </c>
@@ -38222,11 +38210,11 @@
       <c r="E34" s="23">
         <v>2017</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -38242,11 +38230,11 @@
       <c r="E35" s="8">
         <v>90.959017617037659</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="59">
         <v>99.575198181127405</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -38262,11 +38250,11 @@
       <c r="E36" s="8">
         <v>63.077151708412707</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="59">
         <v>99.06793988924062</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -38282,11 +38270,11 @@
       <c r="E37" s="8">
         <v>57.95238127356658</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -38302,11 +38290,11 @@
       <c r="E38" s="8">
         <v>31.973359306705916</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -38322,16 +38310,16 @@
       <c r="E39" s="8">
         <v>16.903023381507602</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41">
       <c r="A41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42">
       <c r="B42" s="22">
         <v>2014</v>
       </c>
@@ -38344,11 +38332,11 @@
       <c r="E42" s="23">
         <v>2017</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -38356,9 +38344,9 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F43" s="59"/>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -38366,9 +38354,9 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F44" s="59"/>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -38376,9 +38364,9 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F45" s="59"/>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -38386,9 +38374,9 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F46" s="59"/>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -38396,14 +38384,14 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F47" s="59"/>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50">
       <c r="B50" s="22">
         <v>2014</v>
       </c>
@@ -38416,11 +38404,11 @@
       <c r="E50" s="23">
         <v>2017</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -38428,9 +38416,9 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F51" s="59"/>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -38438,9 +38426,9 @@
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="59"/>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -38448,9 +38436,9 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="59"/>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -38458,9 +38446,9 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F54" s="59"/>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -38468,14 +38456,14 @@
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="59"/>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58">
       <c r="B58" s="22">
         <v>2014</v>
       </c>
@@ -38488,11 +38476,11 @@
       <c r="E58" s="23">
         <v>2017</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -38500,9 +38488,9 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F59" s="59"/>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -38510,9 +38498,9 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="59"/>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -38520,9 +38508,9 @@
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F61" s="59"/>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -38530,9 +38518,9 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F62" s="59"/>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -38540,7 +38528,7 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38548,27 +38536,27 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="true" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="2" width="10" style="23" customWidth="1"/>
-    <col min="3" max="5" width="8.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="true"/>
+    <col min="2" max="2" width="10" style="23" customWidth="true"/>
+    <col min="3" max="5" width="8.81640625" style="23" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="9.36328125" style="58" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="B2" s="22">
         <v>2014</v>
       </c>
@@ -38581,11 +38569,11 @@
       <c r="E2" s="23">
         <v>2017</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -38601,11 +38589,11 @@
       <c r="E3" s="8">
         <v>90.035586693117025</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="59">
         <v>99.594641647296513</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -38621,76 +38609,76 @@
       <c r="E4" s="8">
         <v>61.852699077126118</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="59">
         <v>99.131144722416138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="8">
-        <v>36.20172130684022</v>
+        <v>23.840971083040085</v>
       </c>
       <c r="C5" s="8">
-        <v>70.567752953511956</v>
+        <v>36.18138997101952</v>
       </c>
       <c r="D5" s="8">
-        <v>90.965900636247397</v>
+        <v>14.127451802994079</v>
       </c>
       <c r="E5" s="8">
-        <v>79.214934395065711</v>
-      </c>
-      <c r="F5" s="8">
+        <v>4.596617311132718</v>
+      </c>
+      <c r="F5" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="8">
-        <v>18.242276416650345</v>
+        <v>11.456280919970119</v>
       </c>
       <c r="C6" s="8">
-        <v>49.599195805464575</v>
+        <v>21.300143682541474</v>
       </c>
       <c r="D6" s="8">
-        <v>71.475863386265431</v>
+        <v>6.8469886991629298</v>
       </c>
       <c r="E6" s="8">
-        <v>54.096759887403422</v>
-      </c>
-      <c r="F6" s="8">
+        <v>3.9283674380851612</v>
+      </c>
+      <c r="F6" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="8">
-        <v>9.7072069581474629</v>
+        <v>8.7610808397994617</v>
       </c>
       <c r="C7" s="8">
-        <v>28.689600847988366</v>
+        <v>15.749318537191956</v>
       </c>
       <c r="D7" s="8">
-        <v>46.315800854889346</v>
+        <v>4.6872387341387567</v>
       </c>
       <c r="E7" s="8">
-        <v>32.019065064861614</v>
-      </c>
-      <c r="F7" s="8">
+        <v>3.8538596962903</v>
+      </c>
+      <c r="F7" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="B10" s="22">
         <v>2014</v>
       </c>
@@ -38703,11 +38691,11 @@
       <c r="E10" s="23">
         <v>2017</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -38723,11 +38711,11 @@
       <c r="E11" s="8">
         <v>90.292768757412915</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="59">
         <v>99.825159681329595</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -38743,76 +38731,76 @@
       <c r="E12" s="8">
         <v>63.738711395910322</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="59">
         <v>99.615035126309692</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="8">
-        <v>19.830425009225419</v>
+        <v>11.684448632503914</v>
       </c>
       <c r="C13" s="8">
-        <v>42.759433819438648</v>
+        <v>13.135423793364346</v>
       </c>
       <c r="D13" s="8">
-        <v>87.210838664099526</v>
+        <v>9.0168718633400644</v>
       </c>
       <c r="E13" s="8">
-        <v>80.262357235790375</v>
-      </c>
-      <c r="F13" s="8">
+        <v>4.0843078507858293</v>
+      </c>
+      <c r="F13" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="8">
-        <v>8.4343218911489526</v>
+        <v>4.98587008298363</v>
       </c>
       <c r="C14" s="8">
-        <v>21.996838726477584</v>
+        <v>5.8966745338856246</v>
       </c>
       <c r="D14" s="8">
-        <v>62.362727907242629</v>
+        <v>4.3560752106675178</v>
       </c>
       <c r="E14" s="8">
-        <v>55.178052335164907</v>
-      </c>
-      <c r="F14" s="8">
+        <v>3.5798982714072913</v>
+      </c>
+      <c r="F14" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>81</v>
       </c>
       <c r="B15" s="8">
-        <v>4.1268049326371399</v>
+        <v>3.6788985035362298</v>
       </c>
       <c r="C15" s="8">
-        <v>9.112244040124919</v>
+        <v>3.4901855264949662</v>
       </c>
       <c r="D15" s="8">
-        <v>34.765384151001641</v>
+        <v>3.1016546316651512</v>
       </c>
       <c r="E15" s="8">
-        <v>32.191900355931956</v>
-      </c>
-      <c r="F15" s="8">
+        <v>3.5430179144135239</v>
+      </c>
+      <c r="F15" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="B18" s="22">
         <v>2014</v>
       </c>
@@ -38825,11 +38813,11 @@
       <c r="E18" s="23">
         <v>2017</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -38845,11 +38833,11 @@
       <c r="E19" s="8">
         <v>93.268372116285605</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="59">
         <v>99.908862406731487</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -38865,76 +38853,76 @@
       <c r="E20" s="8">
         <v>68.616367500739074</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="59">
         <v>99.79914085563162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="A21" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="8">
-        <v>35.062310000358529</v>
+        <v>23.542937572606938</v>
       </c>
       <c r="C21" s="8">
-        <v>58.23063963729269</v>
+        <v>23.431927667914181</v>
       </c>
       <c r="D21" s="8">
-        <v>91.426317327648292</v>
+        <v>14.557592246356924</v>
       </c>
       <c r="E21" s="8">
-        <v>84.693863071695347</v>
-      </c>
-      <c r="F21" s="8">
+        <v>5.3099242522485008</v>
+      </c>
+      <c r="F21" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="8">
-        <v>18.304124367139618</v>
+        <v>12.041908996025235</v>
       </c>
       <c r="C22" s="8">
-        <v>35.649120493453836</v>
+        <v>10.79217555803393</v>
       </c>
       <c r="D22" s="8">
-        <v>72.671050292427211</v>
+        <v>7.0707220458289584</v>
       </c>
       <c r="E22" s="8">
-        <v>61.216402930543708</v>
-      </c>
-      <c r="F22" s="8">
+        <v>4.6748125522809145</v>
+      </c>
+      <c r="F22" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="A23" t="s">
         <v>81</v>
       </c>
       <c r="B23" s="8">
-        <v>10.419168420687772</v>
+        <v>9.4261307746094225</v>
       </c>
       <c r="C23" s="8">
-        <v>16.616210599430364</v>
+        <v>6.7585208552815565</v>
       </c>
       <c r="D23" s="8">
-        <v>47.309133988219379</v>
+        <v>4.845491920624192</v>
       </c>
       <c r="E23" s="8">
-        <v>37.378590242473997</v>
-      </c>
-      <c r="F23" s="8">
+        <v>4.5988592722814845</v>
+      </c>
+      <c r="F23" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="B26" s="22">
         <v>2014</v>
       </c>
@@ -38947,11 +38935,11 @@
       <c r="E26" s="23">
         <v>2017</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -38967,11 +38955,11 @@
       <c r="E27" s="31">
         <v>92.983734232687027</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="60">
         <v>99.643944970577081</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -38987,76 +38975,76 @@
       <c r="E28" s="31">
         <v>67.207138749299901</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="60">
         <v>99.196210761855994</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="A29" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="31">
-        <v>34.15556228042044</v>
+        <v>22.971057004750698</v>
       </c>
       <c r="C29" s="31">
-        <v>57.188920317490123</v>
+        <v>21.532327231086065</v>
       </c>
       <c r="D29" s="31">
-        <v>90.878303946655478</v>
+        <v>14.129641807442155</v>
       </c>
       <c r="E29" s="31">
-        <v>84.033108032524666</v>
-      </c>
-      <c r="F29" s="31">
+        <v>4.0827536644840769</v>
+      </c>
+      <c r="F29" s="60">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30">
       <c r="A30" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="31">
-        <v>17.854708289894557</v>
+        <v>11.592492918780174</v>
       </c>
       <c r="C30" s="31">
-        <v>33.798518309306729</v>
+        <v>9.7452937122753731</v>
       </c>
       <c r="D30" s="31">
-        <v>71.680235318596573</v>
+        <v>6.7387594361872862</v>
       </c>
       <c r="E30" s="31">
-        <v>59.384078171587916</v>
-      </c>
-      <c r="F30" s="31">
+        <v>3.4906852320200423</v>
+      </c>
+      <c r="F30" s="60">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31">
       <c r="A31" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="31">
-        <v>9.9697523434427122</v>
+        <v>8.9767146973643612</v>
       </c>
       <c r="C31" s="31">
-        <v>15.180930361020994</v>
+        <v>5.7468879525693257</v>
       </c>
       <c r="D31" s="31">
-        <v>46.408570069793974</v>
+        <v>4.5475889886428638</v>
       </c>
       <c r="E31" s="31">
-        <v>34.567739839351795</v>
-      </c>
-      <c r="F31" s="31">
+        <v>3.4147319520206123</v>
+      </c>
+      <c r="F31" s="60">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="A33" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34">
       <c r="B34" s="22">
         <v>2014</v>
       </c>
@@ -39069,11 +39057,11 @@
       <c r="E34" s="23">
         <v>2017</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -39089,11 +39077,11 @@
       <c r="E35" s="8">
         <v>90.959017617037659</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="59">
         <v>99.575198181127405</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -39109,76 +39097,76 @@
       <c r="E36" s="8">
         <v>63.077151708412707</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="59">
         <v>99.06793988924062</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37">
       <c r="A37" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="8">
-        <v>31.629609670589652</v>
+        <v>21.53013938446696</v>
       </c>
       <c r="C37" s="8">
-        <v>53.150240320484386</v>
+        <v>19.417534414852025</v>
       </c>
       <c r="D37" s="8">
-        <v>89.230006343969478</v>
+        <v>13.19512134436977</v>
       </c>
       <c r="E37" s="8">
-        <v>81.45022882385139</v>
-      </c>
-      <c r="F37" s="8">
+        <v>3.9783159160125279</v>
+      </c>
+      <c r="F37" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38">
       <c r="A38" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="8">
-        <v>17.173420107264352</v>
+        <v>11.276555588208781</v>
       </c>
       <c r="C38" s="8">
-        <v>31.075530924134949</v>
+        <v>8.9776947184712856</v>
       </c>
       <c r="D38" s="8">
-        <v>68.928179200830016</v>
+        <v>6.5353811338520833</v>
       </c>
       <c r="E38" s="8">
-        <v>55.888474254405594</v>
-      </c>
-      <c r="F38" s="8">
+        <v>3.484659365462889</v>
+      </c>
+      <c r="F38" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39">
       <c r="A39" t="s">
         <v>81</v>
       </c>
       <c r="B39" s="8">
-        <v>9.9222887458569495</v>
+        <v>8.7541353532558617</v>
       </c>
       <c r="C39" s="8">
-        <v>14.585478735898667</v>
+        <v>5.4507125315057037</v>
       </c>
       <c r="D39" s="8">
-        <v>43.329069857533341</v>
+        <v>4.5164911622097952</v>
       </c>
       <c r="E39" s="8">
-        <v>30.954259282284298</v>
-      </c>
-      <c r="F39" s="8">
+        <v>3.4147319520206123</v>
+      </c>
+      <c r="F39" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41">
       <c r="A41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42">
       <c r="B42" s="22">
         <v>2014</v>
       </c>
@@ -39191,11 +39179,11 @@
       <c r="E42" s="23">
         <v>2017</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -39203,9 +39191,9 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F43" s="59"/>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -39213,9 +39201,9 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F44" s="59"/>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -39223,9 +39211,9 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F45" s="59"/>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -39233,9 +39221,9 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F46" s="59"/>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -39243,14 +39231,14 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F47" s="59"/>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50">
       <c r="B50" s="22">
         <v>2014</v>
       </c>
@@ -39263,11 +39251,11 @@
       <c r="E50" s="23">
         <v>2017</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -39275,9 +39263,9 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F51" s="59"/>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -39285,9 +39273,9 @@
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="59"/>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -39295,9 +39283,9 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="59"/>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -39305,9 +39293,9 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F54" s="59"/>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -39315,14 +39303,14 @@
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="59"/>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58">
       <c r="B58" s="22">
         <v>2014</v>
       </c>
@@ -39335,11 +39323,11 @@
       <c r="E58" s="23">
         <v>2017</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="58">
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -39347,9 +39335,9 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F59" s="59"/>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -39357,9 +39345,9 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="59"/>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -39367,9 +39355,9 @@
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F61" s="59"/>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -39377,9 +39365,9 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F62" s="59"/>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -39387,7 +39375,7 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39395,27 +39383,27 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="2" width="10" style="23" customWidth="1"/>
-    <col min="3" max="5" width="8.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="true"/>
+    <col min="2" max="2" width="10" style="23" customWidth="true"/>
+    <col min="3" max="5" width="8.81640625" style="23" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="9.36328125" style="23" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="B2" s="22">
         <v>2014</v>
       </c>
@@ -39432,7 +39420,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -39452,7 +39440,7 @@
         <v>99.594641647296513</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -39472,72 +39460,72 @@
         <v>99.131144722416138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="8">
-        <v>47.332569537156601</v>
+        <v>36.20172130684022</v>
       </c>
       <c r="C5" s="8">
-        <v>82.666264267195345</v>
+        <v>70.567752953511956</v>
       </c>
       <c r="D5" s="8">
-        <v>97.174200429892181</v>
+        <v>90.965900636247397</v>
       </c>
       <c r="E5" s="8">
-        <v>92.13316202989202</v>
+        <v>79.214934395065711</v>
       </c>
       <c r="F5" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="8">
-        <v>23.893955295188903</v>
+        <v>18.242276416650345</v>
       </c>
       <c r="C6" s="8">
-        <v>63.699693755130006</v>
+        <v>49.599195805464575</v>
       </c>
       <c r="D6" s="8">
-        <v>90.965900636247397</v>
+        <v>71.475863386265431</v>
       </c>
       <c r="E6" s="8">
-        <v>74.792143304354425</v>
+        <v>54.096759887403422</v>
       </c>
       <c r="F6" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="8">
-        <v>11.471908378612488</v>
+        <v>9.7072069581474629</v>
       </c>
       <c r="C7" s="8">
-        <v>43.787815566458612</v>
+        <v>28.689600847988366</v>
       </c>
       <c r="D7" s="8">
-        <v>72.319342460002318</v>
+        <v>46.315800854889346</v>
       </c>
       <c r="E7" s="8">
-        <v>50.959452179123929</v>
+        <v>32.019065064861614</v>
       </c>
       <c r="F7" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="B10" s="22">
         <v>2014</v>
       </c>
@@ -39554,7 +39542,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -39574,7 +39562,7 @@
         <v>99.825159681329595</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -39594,72 +39582,72 @@
         <v>99.615035126309692</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="8">
-        <v>27.831540130578581</v>
+        <v>19.830425009225419</v>
       </c>
       <c r="C13" s="8">
-        <v>58.62748998600685</v>
+        <v>42.759433819438648</v>
       </c>
       <c r="D13" s="8">
-        <v>96.08192954612916</v>
+        <v>87.210838664099526</v>
       </c>
       <c r="E13" s="8">
-        <v>92.393275672609548</v>
+        <v>80.262357235790375</v>
       </c>
       <c r="F13" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="8">
-        <v>11.714571800199685</v>
+        <v>8.4343218911489526</v>
       </c>
       <c r="C14" s="8">
-        <v>35.199025999339099</v>
+        <v>21.996838726477584</v>
       </c>
       <c r="D14" s="8">
-        <v>87.210838664099526</v>
+        <v>62.362727907242629</v>
       </c>
       <c r="E14" s="8">
-        <v>76.091971871666786</v>
+        <v>55.178052335164907</v>
       </c>
       <c r="F14" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>81</v>
       </c>
       <c r="B15" s="8">
-        <v>5.0026395320326014</v>
+        <v>4.1268049326371399</v>
       </c>
       <c r="C15" s="8">
-        <v>17.345978495917073</v>
+        <v>9.112244040124919</v>
       </c>
       <c r="D15" s="8">
-        <v>63.423033174248388</v>
+        <v>34.765384151001641</v>
       </c>
       <c r="E15" s="8">
-        <v>51.958222267225707</v>
+        <v>32.191900355931956</v>
       </c>
       <c r="F15" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="B18" s="22">
         <v>2014</v>
       </c>
@@ -39676,7 +39664,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -39696,7 +39684,7 @@
         <v>99.908862406731487</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -39716,72 +39704,72 @@
         <v>99.79914085563162</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="A21" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="8">
-        <v>46.088715843350201</v>
+        <v>35.062310000358529</v>
       </c>
       <c r="C21" s="8">
-        <v>74.554023922687833</v>
+        <v>58.23063963729269</v>
       </c>
       <c r="D21" s="8">
-        <v>97.663634384185684</v>
+        <v>91.426317327648292</v>
       </c>
       <c r="E21" s="8">
-        <v>95.072810539246973</v>
+        <v>84.693863071695347</v>
       </c>
       <c r="F21" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="8">
-        <v>23.542937572606938</v>
+        <v>18.304124367139618</v>
       </c>
       <c r="C22" s="8">
-        <v>49.493136340055976</v>
+        <v>35.649120493453836</v>
       </c>
       <c r="D22" s="8">
-        <v>91.426317327648292</v>
+        <v>72.671050292427211</v>
       </c>
       <c r="E22" s="8">
-        <v>81.121074612445156</v>
+        <v>61.216402930543708</v>
       </c>
       <c r="F22" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="A23" t="s">
         <v>81</v>
       </c>
       <c r="B23" s="8">
-        <v>12.055819998121585</v>
+        <v>10.419168420687772</v>
       </c>
       <c r="C23" s="8">
-        <v>29.4503906251404</v>
+        <v>16.616210599430364</v>
       </c>
       <c r="D23" s="8">
-        <v>73.643027376787302</v>
+        <v>47.309133988219379</v>
       </c>
       <c r="E23" s="8">
-        <v>57.298940631024678</v>
+        <v>37.378590242473997</v>
       </c>
       <c r="F23" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="B26" s="22">
         <v>2014</v>
       </c>
@@ -39798,7 +39786,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -39818,7 +39806,7 @@
         <v>99.643944970577081</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -39838,72 +39826,72 @@
         <v>99.196210761855994</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="A29" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="31">
-        <v>45.282887444665114</v>
+        <v>34.15556228042044</v>
       </c>
       <c r="C29" s="31">
-        <v>74.785056761482764</v>
+        <v>57.188920317490123</v>
       </c>
       <c r="D29" s="31">
-        <v>97.323408241848981</v>
+        <v>90.878303946655478</v>
       </c>
       <c r="E29" s="31">
-        <v>95.001308255717163</v>
+        <v>84.033108032524666</v>
       </c>
       <c r="F29" s="31">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30">
       <c r="A30" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="31">
-        <v>22.971057004750698</v>
+        <v>17.854708289894557</v>
       </c>
       <c r="C30" s="31">
-        <v>48.728814570007494</v>
+        <v>33.798518309306729</v>
       </c>
       <c r="D30" s="31">
-        <v>90.878303946655478</v>
+        <v>71.680235318596573</v>
       </c>
       <c r="E30" s="31">
-        <v>80.285213108874999</v>
+        <v>59.384078171587916</v>
       </c>
       <c r="F30" s="31">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31">
       <c r="A31" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="31">
-        <v>11.606403920876526</v>
+        <v>9.9697523434427122</v>
       </c>
       <c r="C31" s="31">
-        <v>27.237294165924169</v>
+        <v>15.180930361020994</v>
       </c>
       <c r="D31" s="31">
-        <v>72.627550721138263</v>
+        <v>46.408570069793974</v>
       </c>
       <c r="E31" s="31">
-        <v>55.371541442117767</v>
+        <v>34.567739839351795</v>
       </c>
       <c r="F31" s="31">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="A33" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34">
       <c r="B34" s="22">
         <v>2014</v>
       </c>
@@ -39920,7 +39908,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -39940,7 +39928,7 @@
         <v>99.575198181127405</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -39960,72 +39948,72 @@
         <v>99.06793988924062</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37">
       <c r="A37" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="8">
-        <v>41.763556200365706</v>
+        <v>31.629609670589652</v>
       </c>
       <c r="C37" s="8">
-        <v>70.173810159478606</v>
+        <v>53.150240320484386</v>
       </c>
       <c r="D37" s="8">
-        <v>96.698454409986994</v>
+        <v>89.230006343969478</v>
       </c>
       <c r="E37" s="8">
-        <v>93.809465662805238</v>
+        <v>81.45022882385139</v>
       </c>
       <c r="F37" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38">
       <c r="A38" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="8">
-        <v>21.53013938446696</v>
+        <v>17.173420107264352</v>
       </c>
       <c r="C38" s="8">
-        <v>46.196830842942795</v>
+        <v>31.075530924134949</v>
       </c>
       <c r="D38" s="8">
-        <v>89.230006343969478</v>
+        <v>68.928179200830016</v>
       </c>
       <c r="E38" s="8">
-        <v>77.185226102348608</v>
+        <v>55.888474254405594</v>
       </c>
       <c r="F38" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39">
       <c r="A39" t="s">
         <v>81</v>
       </c>
       <c r="B39" s="8">
-        <v>11.29046659030513</v>
+        <v>9.9222887458569495</v>
       </c>
       <c r="C39" s="8">
-        <v>23.768900113716072</v>
+        <v>14.585478735898667</v>
       </c>
       <c r="D39" s="8">
-        <v>69.283037339436405</v>
+        <v>43.329069857533341</v>
       </c>
       <c r="E39" s="8">
-        <v>50.822724859951094</v>
+        <v>30.954259282284298</v>
       </c>
       <c r="F39" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41">
       <c r="A41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42">
       <c r="B42" s="22">
         <v>2014</v>
       </c>
@@ -40042,7 +40030,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -40052,7 +40040,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -40062,7 +40050,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -40072,7 +40060,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -40082,7 +40070,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -40092,12 +40080,12 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49">
       <c r="A49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50">
       <c r="B50" s="22">
         <v>2014</v>
       </c>
@@ -40114,7 +40102,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -40124,7 +40112,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -40134,7 +40122,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -40144,7 +40132,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -40154,7 +40142,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -40164,12 +40152,12 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57">
       <c r="A57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58">
       <c r="B58" s="22">
         <v>2014</v>
       </c>
@@ -40186,7 +40174,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -40196,7 +40184,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -40206,7 +40194,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -40216,7 +40204,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -40226,7 +40214,854 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="29.90625" customWidth="true"/>
+    <col min="2" max="2" width="10" style="23" customWidth="true"/>
+    <col min="3" max="5" width="8.81640625" style="23" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="9.36328125" style="23" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C2" s="23">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="23">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="23">
+        <v>2017</v>
+      </c>
+      <c r="F2" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="8">
+        <v>52.58595917061627</v>
+      </c>
+      <c r="C3" s="8">
+        <v>74.54951807412904</v>
+      </c>
+      <c r="D3" s="8">
+        <v>85.493424518985577</v>
+      </c>
+      <c r="E3" s="8">
+        <v>90.035586693117025</v>
+      </c>
+      <c r="F3" s="8">
+        <v>99.594641647296513</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="8">
+        <v>23.303519947891072</v>
+      </c>
+      <c r="C4" s="8">
+        <v>48.416267686992995</v>
+      </c>
+      <c r="D4" s="8">
+        <v>54.383015727044018</v>
+      </c>
+      <c r="E4" s="8">
+        <v>61.852699077126118</v>
+      </c>
+      <c r="F4" s="8">
+        <v>99.131144722416138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="8">
+        <v>47.332569537156601</v>
+      </c>
+      <c r="C5" s="8">
+        <v>82.666264267195345</v>
+      </c>
+      <c r="D5" s="8">
+        <v>97.174200429892181</v>
+      </c>
+      <c r="E5" s="8">
+        <v>92.13316202989202</v>
+      </c>
+      <c r="F5" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="8">
+        <v>23.893955295188903</v>
+      </c>
+      <c r="C6" s="8">
+        <v>63.699693755130006</v>
+      </c>
+      <c r="D6" s="8">
+        <v>90.965900636247397</v>
+      </c>
+      <c r="E6" s="8">
+        <v>74.792143304354425</v>
+      </c>
+      <c r="F6" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="8">
+        <v>11.471908378612488</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43.787815566458612</v>
+      </c>
+      <c r="D7" s="8">
+        <v>72.319342460002318</v>
+      </c>
+      <c r="E7" s="8">
+        <v>50.959452179123929</v>
+      </c>
+      <c r="F7" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2015</v>
+      </c>
+      <c r="D10" s="23">
+        <v>2016</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2017</v>
+      </c>
+      <c r="F10" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="8">
+        <v>32.562196345169447</v>
+      </c>
+      <c r="C11" s="8">
+        <v>48.468758471601454</v>
+      </c>
+      <c r="D11" s="8">
+        <v>79.916146461148983</v>
+      </c>
+      <c r="E11" s="8">
+        <v>90.292768757412915</v>
+      </c>
+      <c r="F11" s="8">
+        <v>99.825159681329595</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11.269474050999525</v>
+      </c>
+      <c r="C12" s="8">
+        <v>20.928200829924563</v>
+      </c>
+      <c r="D12" s="8">
+        <v>43.143864568945965</v>
+      </c>
+      <c r="E12" s="8">
+        <v>63.738711395910322</v>
+      </c>
+      <c r="F12" s="8">
+        <v>99.615035126309692</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="8">
+        <v>27.831540130578581</v>
+      </c>
+      <c r="C13" s="8">
+        <v>58.62748998600685</v>
+      </c>
+      <c r="D13" s="8">
+        <v>96.08192954612916</v>
+      </c>
+      <c r="E13" s="8">
+        <v>92.393275672609548</v>
+      </c>
+      <c r="F13" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="8">
+        <v>11.714571800199685</v>
+      </c>
+      <c r="C14" s="8">
+        <v>35.199025999339099</v>
+      </c>
+      <c r="D14" s="8">
+        <v>87.210838664099526</v>
+      </c>
+      <c r="E14" s="8">
+        <v>76.091971871666786</v>
+      </c>
+      <c r="F14" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5.0026395320326014</v>
+      </c>
+      <c r="C15" s="8">
+        <v>17.345978495917073</v>
+      </c>
+      <c r="D15" s="8">
+        <v>63.423033174248388</v>
+      </c>
+      <c r="E15" s="8">
+        <v>51.958222267225707</v>
+      </c>
+      <c r="F15" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C18" s="23">
+        <v>2015</v>
+      </c>
+      <c r="D18" s="23">
+        <v>2016</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2017</v>
+      </c>
+      <c r="F18" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="8">
+        <v>50.449642851077428</v>
+      </c>
+      <c r="C19" s="8">
+        <v>63.869362868819593</v>
+      </c>
+      <c r="D19" s="8">
+        <v>86.321036569290627</v>
+      </c>
+      <c r="E19" s="8">
+        <v>93.268372116285605</v>
+      </c>
+      <c r="F19" s="8">
+        <v>99.908862406731487</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="8">
+        <v>23.135764328952892</v>
+      </c>
+      <c r="C20" s="8">
+        <v>34.638905651668757</v>
+      </c>
+      <c r="D20" s="8">
+        <v>55.423819961729912</v>
+      </c>
+      <c r="E20" s="8">
+        <v>68.616367500739074</v>
+      </c>
+      <c r="F20" s="8">
+        <v>99.79914085563162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="8">
+        <v>46.088715843350201</v>
+      </c>
+      <c r="C21" s="8">
+        <v>74.554023922687833</v>
+      </c>
+      <c r="D21" s="8">
+        <v>97.663634384185684</v>
+      </c>
+      <c r="E21" s="8">
+        <v>95.072810539246973</v>
+      </c>
+      <c r="F21" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="8">
+        <v>23.542937572606938</v>
+      </c>
+      <c r="C22" s="8">
+        <v>49.493136340055976</v>
+      </c>
+      <c r="D22" s="8">
+        <v>91.426317327648292</v>
+      </c>
+      <c r="E22" s="8">
+        <v>81.121074612445156</v>
+      </c>
+      <c r="F22" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="8">
+        <v>12.055819998121585</v>
+      </c>
+      <c r="C23" s="8">
+        <v>29.4503906251404</v>
+      </c>
+      <c r="D23" s="8">
+        <v>73.643027376787302</v>
+      </c>
+      <c r="E23" s="8">
+        <v>57.298940631024678</v>
+      </c>
+      <c r="F23" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C26" s="23">
+        <v>2015</v>
+      </c>
+      <c r="D26" s="23">
+        <v>2016</v>
+      </c>
+      <c r="E26" s="23">
+        <v>2017</v>
+      </c>
+      <c r="F26" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="31">
+        <v>49.71855381063299</v>
+      </c>
+      <c r="C27" s="31">
+        <v>63.510916928977991</v>
+      </c>
+      <c r="D27" s="31">
+        <v>85.668497879262944</v>
+      </c>
+      <c r="E27" s="31">
+        <v>92.983734232687027</v>
+      </c>
+      <c r="F27" s="31">
+        <v>99.643944970577081</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="31">
+        <v>22.563883761096648</v>
+      </c>
+      <c r="C28" s="31">
+        <v>32.49577448884213</v>
+      </c>
+      <c r="D28" s="31">
+        <v>54.305667945473054</v>
+      </c>
+      <c r="E28" s="31">
+        <v>67.207138749299901</v>
+      </c>
+      <c r="F28" s="31">
+        <v>99.196210761855994</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="31">
+        <v>45.282887444665114</v>
+      </c>
+      <c r="C29" s="31">
+        <v>74.785056761482764</v>
+      </c>
+      <c r="D29" s="31">
+        <v>97.323408241848981</v>
+      </c>
+      <c r="E29" s="31">
+        <v>95.001308255717163</v>
+      </c>
+      <c r="F29" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="31">
+        <v>22.971057004750698</v>
+      </c>
+      <c r="C30" s="31">
+        <v>48.728814570007494</v>
+      </c>
+      <c r="D30" s="31">
+        <v>90.878303946655478</v>
+      </c>
+      <c r="E30" s="31">
+        <v>80.285213108874999</v>
+      </c>
+      <c r="F30" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="31">
+        <v>11.606403920876526</v>
+      </c>
+      <c r="C31" s="31">
+        <v>27.237294165924169</v>
+      </c>
+      <c r="D31" s="31">
+        <v>72.627550721138263</v>
+      </c>
+      <c r="E31" s="31">
+        <v>55.371541442117767</v>
+      </c>
+      <c r="F31" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C34" s="23">
+        <v>2015</v>
+      </c>
+      <c r="D34" s="23">
+        <v>2016</v>
+      </c>
+      <c r="E34" s="23">
+        <v>2017</v>
+      </c>
+      <c r="F34" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="8">
+        <v>45.91811902064029</v>
+      </c>
+      <c r="C35" s="8">
+        <v>59.818740446263774</v>
+      </c>
+      <c r="D35" s="8">
+        <v>82.211508277777938</v>
+      </c>
+      <c r="E35" s="8">
+        <v>90.959017617037659</v>
+      </c>
+      <c r="F35" s="8">
+        <v>99.575198181127405</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="8">
+        <v>20.668137286693138</v>
+      </c>
+      <c r="C36" s="8">
+        <v>30.251160481922451</v>
+      </c>
+      <c r="D36" s="8">
+        <v>50.421520740113444</v>
+      </c>
+      <c r="E36" s="8">
+        <v>63.077151708412707</v>
+      </c>
+      <c r="F36" s="8">
+        <v>99.06793988924062</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="8">
+        <v>41.763556200365706</v>
+      </c>
+      <c r="C37" s="8">
+        <v>70.173810159478606</v>
+      </c>
+      <c r="D37" s="8">
+        <v>96.698454409986994</v>
+      </c>
+      <c r="E37" s="8">
+        <v>93.809465662805238</v>
+      </c>
+      <c r="F37" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="8">
+        <v>21.53013938446696</v>
+      </c>
+      <c r="C38" s="8">
+        <v>46.196830842942795</v>
+      </c>
+      <c r="D38" s="8">
+        <v>89.230006343969478</v>
+      </c>
+      <c r="E38" s="8">
+        <v>77.185226102348608</v>
+      </c>
+      <c r="F38" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="8">
+        <v>11.29046659030513</v>
+      </c>
+      <c r="C39" s="8">
+        <v>23.768900113716072</v>
+      </c>
+      <c r="D39" s="8">
+        <v>69.283037339436405</v>
+      </c>
+      <c r="E39" s="8">
+        <v>50.822724859951094</v>
+      </c>
+      <c r="F39" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C42" s="23">
+        <v>2015</v>
+      </c>
+      <c r="D42" s="23">
+        <v>2016</v>
+      </c>
+      <c r="E42" s="23">
+        <v>2017</v>
+      </c>
+      <c r="F42" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C50" s="23">
+        <v>2015</v>
+      </c>
+      <c r="D50" s="23">
+        <v>2016</v>
+      </c>
+      <c r="E50" s="23">
+        <v>2017</v>
+      </c>
+      <c r="F50" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C58" s="23">
+        <v>2015</v>
+      </c>
+      <c r="D58" s="23">
+        <v>2016</v>
+      </c>
+      <c r="E58" s="23">
+        <v>2017</v>
+      </c>
+      <c r="F58" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -40242,24 +41077,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33.54296875" customWidth="1"/>
+    <col min="1" max="1" width="33.54296875" customWidth="true"/>
     <col min="2" max="4" width="8.7265625" style="24"/>
-    <col min="5" max="5" width="9.36328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" style="24" bestFit="true" customWidth="true"/>
     <col min="6" max="6" width="8.7265625" style="24"/>
-    <col min="7" max="7" width="9.36328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" style="24" bestFit="true" customWidth="true"/>
     <col min="8" max="13" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="28" customFormat="true">
       <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
@@ -40276,7 +41111,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="52">
         <v>2014</v>
@@ -40303,7 +41138,7 @@
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
@@ -40341,7 +41176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" ht="29">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -40376,7 +41211,7 @@
         <v>2.0107063585324454</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" ht="43.5">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -40411,7 +41246,7 @@
         <v>6.3454759106933016</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" ht="43.5">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -40446,7 +41281,7 @@
         <v>13.80075727901815</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
@@ -40481,7 +41316,7 @@
         <v>20.146233189711452</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" ht="29">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -40516,7 +41351,7 @@
         <v>77.843060451756102</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -40551,11 +41386,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" s="2"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" s="28" customFormat="true">
       <c r="A11" s="29" t="s">
         <v>83</v>
       </c>
@@ -40572,7 +41407,7 @@
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="52">
         <v>2014</v>
@@ -40599,7 +41434,7 @@
       </c>
       <c r="M12" s="52"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="B13" s="24" t="s">
         <v>3</v>
       </c>
@@ -40637,7 +41472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" ht="43.5">
       <c r="A14" s="4" t="s">
         <v>122</v>
       </c>
@@ -40672,7 +41507,7 @@
         <v>13.740122914837578</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" ht="43.5">
       <c r="A15" s="2" t="s">
         <v>123</v>
       </c>
@@ -40707,7 +41542,7 @@
         <v>0.17559262510974538</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" ht="43.5">
       <c r="A16" s="2" t="s">
         <v>124</v>
       </c>
@@ -40742,7 +41577,7 @@
         <v>20.983318700614575</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
@@ -40777,7 +41612,7 @@
         <v>21.158911325724318</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" ht="29">
       <c r="A18" s="4" t="s">
         <v>125</v>
       </c>
@@ -40812,7 +41647,7 @@
         <v>65.100965759438097</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>121</v>
       </c>
@@ -40847,7 +41682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="28" customFormat="true">
       <c r="A21" s="30" t="s">
         <v>84</v>
       </c>
@@ -40864,7 +41699,7 @@
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" s="3"/>
       <c r="B22" s="52">
         <v>2014</v>
@@ -40891,7 +41726,7 @@
       </c>
       <c r="M22" s="52"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="B23" s="24" t="s">
         <v>3</v>
       </c>
@@ -40929,7 +41764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" ht="43.5">
       <c r="A24" s="4" t="s">
         <v>127</v>
       </c>
@@ -40964,7 +41799,7 @@
         <v>89.508340649692713</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" ht="43.5">
       <c r="A25" s="2" t="s">
         <v>126</v>
       </c>
@@ -40999,7 +41834,7 @@
         <v>0.39508340649692714</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" ht="43.5">
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
@@ -41034,7 +41869,7 @@
         <v>1.8437225636523267</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" s="43" t="s">
         <v>7</v>
       </c>
@@ -41069,7 +41904,7 @@
         <v>2.2388059701492535</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" ht="43.5">
       <c r="A28" s="4" t="s">
         <v>128</v>
       </c>
@@ -41104,7 +41939,7 @@
         <v>8.252853380158033</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>121</v>
       </c>
@@ -41139,7 +41974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="28" customFormat="true">
       <c r="A31" s="30" t="s">
         <v>85</v>
       </c>
@@ -41156,7 +41991,7 @@
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32">
       <c r="A32" s="3"/>
       <c r="B32" s="52">
         <v>2014</v>
@@ -41183,7 +42018,7 @@
       </c>
       <c r="M32" s="52"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="B33" s="24" t="s">
         <v>3</v>
       </c>
@@ -41221,7 +42056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" ht="43.5">
       <c r="A34" s="4" t="s">
         <v>129</v>
       </c>
@@ -41256,7 +42091,7 @@
         <v>97.629499561018434</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" ht="43.5">
       <c r="A35" s="2" t="s">
         <v>130</v>
       </c>
@@ -41291,7 +42126,7 @@
         <v>0.39508340649692714</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" ht="43.5">
       <c r="A36" s="2" t="s">
         <v>124</v>
       </c>
@@ -41326,7 +42161,7 @@
         <v>0.39508340649692714</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37">
       <c r="A37" s="43" t="s">
         <v>7</v>
       </c>
@@ -41361,7 +42196,7 @@
         <v>0.79016681299385427</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" ht="43.5">
       <c r="A38" s="4" t="s">
         <v>131</v>
       </c>
@@ -41396,7 +42231,7 @@
         <v>1.5803336259877085</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39">
       <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
@@ -41431,7 +42266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" s="28" customFormat="true">
       <c r="A41" s="30" t="s">
         <v>86</v>
       </c>
@@ -41448,7 +42283,7 @@
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42">
       <c r="A42" s="3"/>
       <c r="B42" s="52">
         <v>2014</v>
@@ -41475,7 +42310,7 @@
       </c>
       <c r="M42" s="52"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43">
       <c r="B43" s="24" t="s">
         <v>3</v>
       </c>
@@ -41513,7 +42348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" ht="43.5">
       <c r="A44" s="4" t="s">
         <v>132</v>
       </c>
@@ -41548,7 +42383,7 @@
         <v>92.449517120280944</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" ht="43.5">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -41583,7 +42418,7 @@
         <v>0.39508340649692714</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" ht="43.5">
       <c r="A46" s="2" t="s">
         <v>124</v>
       </c>
@@ -41618,7 +42453,7 @@
         <v>1.0974539069359086</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47">
       <c r="A47" s="43" t="s">
         <v>7</v>
       </c>
@@ -41653,7 +42488,7 @@
         <v>1.4925373134328357</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" ht="43.5">
       <c r="A48" s="4" t="s">
         <v>134</v>
       </c>
@@ -41688,7 +42523,7 @@
         <v>6.0579455662862163</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49">
       <c r="A49" s="2" t="s">
         <v>121</v>
       </c>
@@ -41723,7 +42558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" s="28" customFormat="true">
       <c r="A51" s="30" t="s">
         <v>94</v>
       </c>
@@ -41740,7 +42575,7 @@
       <c r="L51" s="27"/>
       <c r="M51" s="27"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52">
       <c r="A52" s="3"/>
       <c r="B52" s="52">
         <v>2014</v>
@@ -41767,7 +42602,7 @@
       </c>
       <c r="M52" s="52"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53">
       <c r="B53" s="32" t="s">
         <v>3</v>
       </c>
@@ -41805,7 +42640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" ht="43.5">
       <c r="A54" s="4" t="s">
         <v>135</v>
       </c>
@@ -41838,7 +42673,7 @@
       <c r="L54" s="32"/>
       <c r="M54" s="32"/>
     </row>
-    <row r="55" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" ht="43.5">
       <c r="A55" s="2" t="s">
         <v>136</v>
       </c>
@@ -41871,7 +42706,7 @@
       <c r="L55" s="32"/>
       <c r="M55" s="32"/>
     </row>
-    <row r="56" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" ht="43.5">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -41904,7 +42739,7 @@
       <c r="L56" s="32"/>
       <c r="M56" s="32"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57">
       <c r="A57" s="43" t="s">
         <v>7</v>
       </c>
@@ -41937,7 +42772,7 @@
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
     </row>
-    <row r="58" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" ht="29">
       <c r="A58" s="4" t="s">
         <v>137</v>
       </c>
@@ -41970,7 +42805,7 @@
       <c r="L58" s="32"/>
       <c r="M58" s="32"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="A59" s="2" t="s">
         <v>121</v>
       </c>
@@ -42003,7 +42838,7 @@
       <c r="L59" s="32"/>
       <c r="M59" s="32"/>
     </row>
-    <row r="61" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" s="28" customFormat="true">
       <c r="A61" s="30" t="s">
         <v>93</v>
       </c>
@@ -42020,7 +42855,7 @@
       <c r="L61" s="27"/>
       <c r="M61" s="27"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62">
       <c r="A62" s="3"/>
       <c r="B62" s="52">
         <v>2014</v>
@@ -42047,7 +42882,7 @@
       </c>
       <c r="M62" s="52"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63">
       <c r="B63" s="32" t="s">
         <v>3</v>
       </c>
@@ -42085,7 +42920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64">
       <c r="A64" s="4"/>
       <c r="B64" s="32"/>
       <c r="C64" s="25"/>
@@ -42116,7 +42951,7 @@
       <c r="L64" s="32"/>
       <c r="M64" s="32"/>
     </row>
-    <row r="65" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" ht="29">
       <c r="A65" s="2" t="s">
         <v>138</v>
       </c>
@@ -42149,7 +42984,7 @@
       <c r="L65" s="32"/>
       <c r="M65" s="32"/>
     </row>
-    <row r="66" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" ht="43.5">
       <c r="A66" s="2" t="s">
         <v>140</v>
       </c>
@@ -42182,7 +43017,7 @@
       <c r="L66" s="32"/>
       <c r="M66" s="32"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67">
       <c r="A67" s="43" t="s">
         <v>7</v>
       </c>
@@ -42215,7 +43050,7 @@
       <c r="L67" s="32"/>
       <c r="M67" s="32"/>
     </row>
-    <row r="68" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" ht="29">
       <c r="A68" s="4" t="s">
         <v>139</v>
       </c>
@@ -42248,7 +43083,7 @@
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69">
       <c r="A69" s="2" t="s">
         <v>121</v>
       </c>
@@ -42283,6 +43118,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:E62"/>
@@ -42295,36 +43160,6 @@
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="J42:K42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42332,19 +43167,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="10" t="s">
         <v>111</v>
       </c>
@@ -42355,7 +43190,7 @@
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" ht="29">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="40" t="s">
@@ -42374,7 +43209,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" s="53">
         <v>2014</v>
       </c>
@@ -42387,7 +43222,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" s="53"/>
       <c r="B4" s="37" t="s">
         <v>98</v>
@@ -42398,7 +43233,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" s="54"/>
       <c r="B5" s="10" t="s">
         <v>106</v>
@@ -42409,7 +43244,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="55">
         <v>2015</v>
       </c>
@@ -42422,7 +43257,7 @@
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" s="53"/>
       <c r="B7" s="37" t="s">
         <v>98</v>
@@ -42433,7 +43268,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" s="54"/>
       <c r="B8" s="10" t="s">
         <v>106</v>
@@ -42444,7 +43279,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" s="55">
         <v>2016</v>
       </c>
@@ -42457,7 +43292,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" s="53"/>
       <c r="B10" s="37" t="s">
         <v>98</v>
@@ -42468,7 +43303,7 @@
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" s="54"/>
       <c r="B11" s="10" t="s">
         <v>106</v>
@@ -42479,7 +43314,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" s="55">
         <v>2017</v>
       </c>
@@ -42492,7 +43327,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" s="53"/>
       <c r="B13" s="37" t="s">
         <v>98</v>
@@ -42503,7 +43338,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" s="54"/>
       <c r="B14" s="10" t="s">
         <v>106</v>
@@ -42514,7 +43349,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" s="55">
         <v>2018</v>
       </c>
@@ -42527,7 +43362,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16" s="53"/>
       <c r="B16" s="37" t="s">
         <v>98</v>
@@ -42538,7 +43373,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" s="54"/>
       <c r="B17" s="10" t="s">
         <v>106</v>
@@ -42562,14 +43397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -42577,24 +43412,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -42614,12 +43449,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -42639,7 +43474,7 @@
         <v>34.67271548930654</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -42659,7 +43494,7 @@
         <v>65.327284510693445</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
@@ -42669,7 +43504,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -42689,7 +43524,7 @@
         <v>0.51847051198963057</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -42709,7 +43544,7 @@
         <v>16.46143875567077</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -42729,7 +43564,7 @@
         <v>26.895657809462087</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -42749,7 +43584,7 @@
         <v>22.42384964355152</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -42769,7 +43604,7 @@
         <v>19.377835385612443</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -42789,7 +43624,7 @@
         <v>12.054439403758911</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -42809,7 +43644,7 @@
         <v>2.268308489954634</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
@@ -42819,7 +43654,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -42839,7 +43674,7 @@
         <v>24.173687621516528</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -42859,7 +43694,7 @@
         <v>29.617627997407649</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -42879,7 +43714,7 @@
         <v>10.758263123784834</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -42899,7 +43734,7 @@
         <v>2.3331173039533377</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -42919,7 +43754,7 @@
         <v>33.052495139338951</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -42939,7 +43774,7 @@
         <v>6.4808813998703821E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
@@ -42949,7 +43784,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -42969,7 +43804,7 @@
         <v>2.5923525599481532</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -42989,7 +43824,7 @@
         <v>0.19442644199611148</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -43009,7 +43844,7 @@
         <v>17.822423849643553</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -43029,7 +43864,7 @@
         <v>41.412832145171741</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -43049,7 +43884,7 @@
         <v>9.2028515878159425</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -43069,7 +43904,7 @@
         <v>22.618276085547635</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -43089,7 +43924,7 @@
         <v>2.5275437459494494</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -43109,7 +43944,7 @@
         <v>3.6292935839274141</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30">
       <c r="A30" s="9" t="s">
         <v>40</v>
       </c>
@@ -43119,7 +43954,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -43139,7 +43974,7 @@
         <v>20.933246921581336</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -43159,7 +43994,7 @@
         <v>3.1108230719377836</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -43179,7 +44014,7 @@
         <v>14.906027219701878</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -43199,7 +44034,7 @@
         <v>6.4160725858716781</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -43219,7 +44054,7 @@
         <v>1.6202203499675956</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -43239,7 +44074,7 @@
         <v>42.709008425145825</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -43259,7 +44094,7 @@
         <v>0.51847051198963057</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -43279,7 +44114,7 @@
         <v>1.3609850939727801</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -43299,7 +44134,7 @@
         <v>1.2313674659753726</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -43319,7 +44154,7 @@
         <v>7.193778353856124</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41">
       <c r="A41" s="9" t="s">
         <v>141</v>
       </c>
@@ -43329,7 +44164,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42">
       <c r="A42" s="48">
         <v>1</v>
       </c>
@@ -43349,7 +44184,7 @@
         <v>27.802981205443938</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43">
       <c r="A43" s="48" t="s">
         <v>142</v>
       </c>
@@ -43369,7 +44204,7 @@
         <v>21.127673363577447</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44">
       <c r="A44" s="48">
         <v>5</v>
       </c>
@@ -43389,7 +44224,7 @@
         <v>6.9993519118600132</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45">
       <c r="A45" s="48" t="s">
         <v>143</v>
       </c>
@@ -43409,7 +44244,7 @@
         <v>7.453013609850939</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46">
       <c r="A46" s="48" t="s">
         <v>144</v>
       </c>
@@ -43429,7 +44264,7 @@
         <v>6.4808813998703823</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47">
       <c r="A47" s="48" t="s">
         <v>145</v>
       </c>
@@ -43449,7 +44284,7 @@
         <v>10.499027867790019</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48">
       <c r="A48" s="48" t="s">
         <v>146</v>
       </c>
@@ -43469,7 +44304,7 @@
         <v>10.434219053791317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49">
       <c r="A49" s="48" t="s">
         <v>31</v>
       </c>
@@ -43489,7 +44324,7 @@
         <v>9.2028515878159425</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50">
       <c r="A50" s="49" t="s">
         <v>147</v>
       </c>
@@ -43499,7 +44334,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51">
       <c r="A51" s="48" t="s">
         <v>148</v>
       </c>
@@ -43519,7 +44354,7 @@
         <v>33.182112767336356</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52">
       <c r="A52" s="48" t="s">
         <v>149</v>
       </c>
@@ -43539,7 +44374,7 @@
         <v>53.791315618924173</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53">
       <c r="A53" s="48" t="s">
         <v>31</v>
       </c>
@@ -43559,12 +44394,12 @@
         <v>13.026571613739469</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54">
       <c r="A54" s="49" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55">
       <c r="A55" s="48" t="s">
         <v>151</v>
       </c>
@@ -43584,7 +44419,7 @@
         <v>80.168502916396633</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56">
       <c r="A56" s="48" t="s">
         <v>152</v>
       </c>
@@ -43604,7 +44439,7 @@
         <v>18.600129617627996</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57">
       <c r="A57" s="48" t="s">
         <v>31</v>
       </c>
@@ -43624,52 +44459,52 @@
         <v>1.2313674659753726</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58">
       <c r="A58" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="A59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60">
       <c r="A60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61">
       <c r="A61" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62">
       <c r="A62" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63">
       <c r="A63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64">
       <c r="A64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65">
       <c r="A65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66">
       <c r="A66" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -43681,20 +44516,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="13" width="10.1796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="true"/>
+    <col min="2" max="13" width="10.1796875" style="5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -43709,7 +44544,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" s="12"/>
       <c r="B2" s="56" t="s">
         <v>61</v>
@@ -43728,7 +44563,7 @@
       <c r="L2" s="56"/>
       <c r="M2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" s="16"/>
       <c r="B3" s="11" t="s">
         <v>63</v>
@@ -43767,7 +44602,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
@@ -43808,7 +44643,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
@@ -43849,7 +44684,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
@@ -43890,7 +44725,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
@@ -43931,7 +44766,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
@@ -43972,7 +44807,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" s="13">
         <v>2019</v>
       </c>
@@ -43989,12 +44824,12 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="B13" s="19" t="s">
         <v>63</v>
       </c>
@@ -44014,7 +44849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -44043,7 +44878,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -44072,7 +44907,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="5" customFormat="true">
       <c r="A16"/>
       <c r="B16" s="8">
         <f>((B15/B14)-1)*100</f>
@@ -44099,12 +44934,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="5" customFormat="true">
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="5" customFormat="true">
       <c r="A19"/>
       <c r="B19" s="19" t="s">
         <v>63</v>
@@ -44125,7 +44960,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="5" customFormat="true">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -44154,7 +44989,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="5" customFormat="true">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -44183,7 +45018,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="5" customFormat="true">
       <c r="A22"/>
       <c r="B22" s="8">
         <f>((B21/B20)-1)*100</f>
@@ -44210,12 +45045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="5" customFormat="true">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="5" customFormat="true">
       <c r="A25"/>
       <c r="B25" s="19" t="s">
         <v>63</v>
@@ -44236,7 +45071,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="5" customFormat="true">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -44265,7 +45100,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="5" customFormat="true">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -44294,7 +45129,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="5" customFormat="true">
       <c r="A28"/>
       <c r="B28" s="8">
         <f>(B27/B26-1)*100</f>
@@ -44321,12 +45156,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="5" customFormat="true">
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="5" customFormat="true">
       <c r="A31"/>
       <c r="B31" s="19" t="s">
         <v>63</v>
@@ -44347,7 +45182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="5" customFormat="true">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -44376,7 +45211,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="5" customFormat="true">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -44405,7 +45240,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="5" customFormat="true">
       <c r="A34"/>
       <c r="B34" s="8">
         <f>(B33/B32-1)*100</f>
@@ -44432,12 +45267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="5" customFormat="true">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="5" customFormat="true">
       <c r="A37"/>
       <c r="B37" s="19" t="s">
         <v>63</v>
@@ -44458,7 +45293,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="5" customFormat="true">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -44487,7 +45322,7 @@
         <v>3384.35009765625</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="5" customFormat="true">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -44516,7 +45351,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="5" customFormat="true">
       <c r="A40"/>
       <c r="B40" s="8">
         <f>(B39/B38-1)*100</f>
@@ -44543,12 +45378,12 @@
         <v>4.8945852989165317</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="5" customFormat="true">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="5" customFormat="true">
       <c r="A43"/>
       <c r="B43" s="19" t="s">
         <v>63</v>
@@ -44569,7 +45404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="5" customFormat="true">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -44598,7 +45433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="5" customFormat="true">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -44627,7 +45462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="5" customFormat="true">
       <c r="A46"/>
       <c r="B46" s="8" t="e">
         <f>(B45/B44-1)*100</f>
@@ -44654,10 +45489,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="5" customFormat="true">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="5" customFormat="true">
       <c r="A49"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -44666,7 +45501,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="5" customFormat="true">
       <c r="A50"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -44675,7 +45510,7 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" s="5" customFormat="true">
       <c r="A51"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -44684,7 +45519,7 @@
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" s="5" customFormat="true">
       <c r="A52"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -44705,20 +45540,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="13" width="10.1796875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="true"/>
+    <col min="2" max="13" width="10.1796875" style="23" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -44733,7 +45568,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" s="12"/>
       <c r="B2" s="56" t="s">
         <v>61</v>
@@ -44752,7 +45587,7 @@
       <c r="L2" s="56"/>
       <c r="M2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" s="16"/>
       <c r="B3" s="11" t="s">
         <v>63</v>
@@ -44791,7 +45626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
@@ -44832,7 +45667,7 @@
         <v>5135.83984375</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
@@ -44873,7 +45708,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
@@ -44914,7 +45749,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
@@ -44955,7 +45790,7 @@
         <v>202205.328125</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
@@ -44996,7 +45831,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" s="13">
         <v>2019</v>
       </c>
@@ -45013,12 +45848,12 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="B13" s="19" t="s">
         <v>63</v>
       </c>
@@ -45038,7 +45873,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -45067,7 +45902,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -45096,7 +45931,7 @@
         <v>5135.83984375</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="23" customFormat="true">
       <c r="A16"/>
       <c r="B16" s="8">
         <f>((B15/B14)-1)*100</f>
@@ -45123,12 +45958,12 @@
         <v>9.2731881648936199</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="23" customFormat="true">
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="23" customFormat="true">
       <c r="A19"/>
       <c r="B19" s="19" t="s">
         <v>63</v>
@@ -45149,7 +45984,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="23" customFormat="true">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -45178,7 +46013,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="23" customFormat="true">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -45207,7 +46042,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="23" customFormat="true">
       <c r="A22"/>
       <c r="B22" s="8">
         <f>((B21/B20)-1)*100</f>
@@ -45234,12 +46069,12 @@
         <v>-2.7027027027026973</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="23" customFormat="true">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="23" customFormat="true">
       <c r="A25"/>
       <c r="B25" s="19" t="s">
         <v>63</v>
@@ -45260,7 +46095,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="23" customFormat="true">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -45289,7 +46124,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="23" customFormat="true">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -45318,7 +46153,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="23" customFormat="true">
       <c r="A28"/>
       <c r="B28" s="8">
         <f>(B27/B26-1)*100</f>
@@ -45345,12 +46180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="23" customFormat="true">
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="23" customFormat="true">
       <c r="A31"/>
       <c r="B31" s="19" t="s">
         <v>63</v>
@@ -45371,7 +46206,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="23" customFormat="true">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -45400,7 +46235,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="23" customFormat="true">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -45429,7 +46264,7 @@
         <v>202205.328125</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="23" customFormat="true">
       <c r="A34"/>
       <c r="B34" s="8">
         <f>(B33/B32-1)*100</f>
@@ -45456,12 +46291,12 @@
         <v>1.1026640624999917</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="23" customFormat="true">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="23" customFormat="true">
       <c r="A37"/>
       <c r="B37" s="19" t="s">
         <v>63</v>
@@ -45482,7 +46317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="23" customFormat="true">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -45511,7 +46346,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="23" customFormat="true">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -45540,7 +46375,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="23" customFormat="true">
       <c r="A40"/>
       <c r="B40" s="8">
         <f>(B39/B38-1)*100</f>
@@ -45567,12 +46402,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="23" customFormat="true">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="23" customFormat="true">
       <c r="A43"/>
       <c r="B43" s="19" t="s">
         <v>63</v>
@@ -45593,7 +46428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="23" customFormat="true">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -45622,7 +46457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="23" customFormat="true">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -45651,7 +46486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="23" customFormat="true">
       <c r="A46"/>
       <c r="B46" s="8" t="e">
         <f>(B45/B44-1)*100</f>
@@ -45678,10 +46513,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="23" customFormat="true">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="23" customFormat="true">
       <c r="A49"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -45690,7 +46525,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="23" customFormat="true">
       <c r="A50"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -45699,7 +46534,7 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" s="23" customFormat="true">
       <c r="A51"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -45708,7 +46543,7 @@
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" s="23" customFormat="true">
       <c r="A52"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -45729,20 +46564,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="13" width="10.1796875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="true"/>
+    <col min="2" max="13" width="10.1796875" style="23" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -45757,7 +46592,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" s="12"/>
       <c r="B2" s="56" t="s">
         <v>61</v>
@@ -45776,7 +46611,7 @@
       <c r="L2" s="56"/>
       <c r="M2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" s="16"/>
       <c r="B3" s="11" t="s">
         <v>63</v>
@@ -45815,7 +46650,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" s="21" t="s">
         <v>11</v>
       </c>
@@ -45856,7 +46691,7 @@
         <v>85331.6953125</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" s="21" t="s">
         <v>12</v>
       </c>
@@ -45897,7 +46732,7 @@
         <v>303168.65625</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
@@ -45938,7 +46773,7 @@
         <v>31431.798828125</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" s="13">
         <v>2019</v>
       </c>
@@ -45955,12 +46790,12 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="B11" s="19" t="s">
         <v>63</v>
       </c>
@@ -45980,7 +46815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -46009,7 +46844,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -46038,7 +46873,7 @@
         <v>85331.6953125</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" s="23" customFormat="true">
       <c r="A14"/>
       <c r="B14" s="8">
         <f>((B13/B12)-1)*100</f>
@@ -46065,12 +46900,12 @@
         <v>42.219492187500009</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="23" customFormat="true">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" s="23" customFormat="true">
       <c r="A17"/>
       <c r="B17" s="19" t="s">
         <v>63</v>
@@ -46091,7 +46926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="23" customFormat="true">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -46120,7 +46955,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="23" customFormat="true">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -46149,7 +46984,7 @@
         <v>303168.65625</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="23" customFormat="true">
       <c r="A20"/>
       <c r="B20" s="8">
         <f>((B19/B18)-1)*100</f>
@@ -46176,12 +47011,12 @@
         <v>1.0562187499999931</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="23" customFormat="true">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" s="23" customFormat="true">
       <c r="A23"/>
       <c r="B23" s="19" t="s">
         <v>63</v>
@@ -46202,7 +47037,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="23" customFormat="true">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -46231,7 +47066,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="23" customFormat="true">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -46260,7 +47095,7 @@
         <v>31431.798828125</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="23" customFormat="true">
       <c r="A26"/>
       <c r="B26" s="8">
         <f>(B25/B24-1)*100</f>
@@ -46287,12 +47122,12 @@
         <v>4.7726627604166572</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="23" customFormat="true">
       <c r="A28" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" s="23" customFormat="true">
       <c r="A29"/>
       <c r="B29" s="19" t="s">
         <v>63</v>
@@ -46313,7 +47148,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="23" customFormat="true">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -46342,7 +47177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="23" customFormat="true">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -46371,7 +47206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="23" customFormat="true">
       <c r="A32"/>
       <c r="B32" s="8" t="e">
         <f>(B31/B30-1)*100</f>
@@ -46398,10 +47233,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="23" customFormat="true">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" s="23" customFormat="true">
       <c r="A35"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -46410,7 +47245,7 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="23" customFormat="true">
       <c r="A36"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -46419,7 +47254,7 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="23" customFormat="true">
       <c r="A37"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -46428,7 +47263,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
     </row>
-    <row r="38" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="23" customFormat="true">
       <c r="A38"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -46437,10 +47272,10 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="40" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="23" customFormat="true">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" s="23" customFormat="true">
       <c r="A41"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -46449,7 +47284,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="23" customFormat="true">
       <c r="A42"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -46458,7 +47293,7 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="23" customFormat="true">
       <c r="A43"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -46467,7 +47302,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
     </row>
-    <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="23" customFormat="true">
       <c r="A44"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -46476,10 +47311,10 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="23" customFormat="true">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" s="23" customFormat="true">
       <c r="A47"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -46488,7 +47323,7 @@
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="23" customFormat="true">
       <c r="A48"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -46497,7 +47332,7 @@
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="23" customFormat="true">
       <c r="A49"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -46506,7 +47341,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="23" customFormat="true">
       <c r="A50"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -46527,20 +47362,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="13" width="10.1796875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="true"/>
+    <col min="2" max="13" width="10.1796875" style="23" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -46555,7 +47390,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" s="12"/>
       <c r="B2" s="56" t="s">
         <v>61</v>
@@ -46574,7 +47409,7 @@
       <c r="L2" s="56"/>
       <c r="M2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" s="16"/>
       <c r="B3" s="11" t="s">
         <v>63</v>
@@ -46613,7 +47448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
@@ -46630,7 +47465,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
@@ -46647,7 +47482,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
@@ -46664,7 +47499,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
@@ -46681,7 +47516,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
@@ -46698,7 +47533,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" s="13">
         <v>2019</v>
       </c>
@@ -46715,12 +47550,12 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="B13" s="19" t="s">
         <v>63</v>
       </c>
@@ -46740,7 +47575,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -46769,7 +47604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -46798,7 +47633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="23" customFormat="true">
       <c r="A16"/>
       <c r="B16" s="8" t="e">
         <f>((B15/B14)-1)*100</f>
@@ -46825,12 +47660,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="23" customFormat="true">
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="23" customFormat="true">
       <c r="A19"/>
       <c r="B19" s="19" t="s">
         <v>63</v>
@@ -46851,7 +47686,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="23" customFormat="true">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -46880,7 +47715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="23" customFormat="true">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -46909,7 +47744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="23" customFormat="true">
       <c r="A22"/>
       <c r="B22" s="8" t="e">
         <f>((B21/B20)-1)*100</f>
@@ -46936,12 +47771,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="23" customFormat="true">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="23" customFormat="true">
       <c r="A25"/>
       <c r="B25" s="19" t="s">
         <v>63</v>
@@ -46962,7 +47797,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="23" customFormat="true">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -46991,7 +47826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="23" customFormat="true">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -47020,7 +47855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="23" customFormat="true">
       <c r="A28"/>
       <c r="B28" s="8" t="e">
         <f>(B27/B26-1)*100</f>
@@ -47047,12 +47882,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="23" customFormat="true">
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="23" customFormat="true">
       <c r="A31"/>
       <c r="B31" s="19" t="s">
         <v>63</v>
@@ -47073,7 +47908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="23" customFormat="true">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -47102,7 +47937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="23" customFormat="true">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -47131,7 +47966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="23" customFormat="true">
       <c r="A34"/>
       <c r="B34" s="8" t="e">
         <f>(B33/B32-1)*100</f>
@@ -47158,12 +47993,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="23" customFormat="true">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="23" customFormat="true">
       <c r="A37"/>
       <c r="B37" s="19" t="s">
         <v>63</v>
@@ -47184,7 +48019,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="23" customFormat="true">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -47213,7 +48048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="23" customFormat="true">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -47242,7 +48077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="23" customFormat="true">
       <c r="A40"/>
       <c r="B40" s="8" t="e">
         <f>(B39/B38-1)*100</f>
@@ -47269,12 +48104,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="23" customFormat="true">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="23" customFormat="true">
       <c r="A43"/>
       <c r="B43" s="19" t="s">
         <v>63</v>
@@ -47295,7 +48130,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="23" customFormat="true">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -47324,7 +48159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="23" customFormat="true">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -47353,7 +48188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="23" customFormat="true">
       <c r="A46"/>
       <c r="B46" s="8" t="e">
         <f>(B45/B44-1)*100</f>
@@ -47380,10 +48215,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="23" customFormat="true">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="23" customFormat="true">
       <c r="A49"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -47392,7 +48227,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="23" customFormat="true">
       <c r="A50"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -47401,7 +48236,7 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" s="23" customFormat="true">
       <c r="A51"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -47410,7 +48245,7 @@
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" s="23" customFormat="true">
       <c r="A52"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -47437,6 +48272,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -47659,33 +48503,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12907964-CBB5-465B-8DF5-7CBD485C36A9}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
-    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC7312B-146D-4237-A5EF-98BD773A41DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6677EA6F-7F0B-4289-9A76-3F30ABE0F3E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47702,12 +48545,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC7312B-146D-4237-A5EF-98BD773A41DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data_management/management/4. income imputation/output/VEN_income_imputation.xlsx
+++ b/data_management/management/4. income imputation/output/VEN_income_imputation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="153">
   <si>
     <t>Employed individuals that reported they did not know if they received labor income</t>
   </si>
@@ -43413,7 +43413,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
@@ -43431,10 +43431,10 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -43453,16 +43453,18 @@
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="B3"/>
+      <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="8">
-        <v>26.721763085399449</v>
+        <v>33.27163350300787</v>
       </c>
       <c r="C4" s="8">
-        <v>30.434782608695656</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="D4" s="8">
         <v>40.316205533596836</v>
@@ -43479,10 +43481,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="8">
-        <v>73.278236914600541</v>
+        <v>66.728366496992138</v>
       </c>
       <c r="C5" s="8">
-        <v>69.565217391304344</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="D5" s="8">
         <v>59.683794466403164</v>
@@ -43509,10 +43511,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="8">
-        <v>0.82644628099173556</v>
+        <v>0.37019898195279966</v>
       </c>
       <c r="C7" s="8">
-        <v>0.68649885583524028</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="D7" s="8">
         <v>1.1857707509881421</v>
@@ -43529,10 +43531,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <v>11.570247933884298</v>
+        <v>12.447940768162887</v>
       </c>
       <c r="C8" s="8">
-        <v>14.187643020594965</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8">
         <v>16.600790513833992</v>
@@ -43549,10 +43551,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="8">
-        <v>31.955922865013775</v>
+        <v>22.073114298935678</v>
       </c>
       <c r="C9" s="8">
-        <v>29.977116704805489</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8">
         <v>24.505928853754941</v>
@@ -43569,10 +43571,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="8">
-        <v>24.517906336088156</v>
+        <v>23.183711244794079</v>
       </c>
       <c r="C10" s="8">
-        <v>22.196796338672769</v>
+        <v>1.2121212121212122</v>
       </c>
       <c r="D10" s="8">
         <v>18.181818181818183</v>
@@ -43589,10 +43591,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="8">
-        <v>18.181818181818183</v>
+        <v>20.546043498380378</v>
       </c>
       <c r="C11" s="8">
-        <v>18.077803203661329</v>
+        <v>4.8484848484848486</v>
       </c>
       <c r="D11" s="8">
         <v>21.343873517786559</v>
@@ -43609,10 +43611,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="8">
-        <v>10.192837465564738</v>
+        <v>14.669134659879685</v>
       </c>
       <c r="C12" s="8">
-        <v>12.356979405034325</v>
+        <v>39.393939393939391</v>
       </c>
       <c r="D12" s="8">
         <v>14.624505928853754</v>
@@ -43629,10 +43631,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="8">
-        <v>2.7548209366391188</v>
+        <v>6.7098565478944936</v>
       </c>
       <c r="C13" s="8">
-        <v>2.5171624713958809</v>
+        <v>53.939393939393945</v>
       </c>
       <c r="D13" s="8">
         <v>3.5573122529644272</v>
@@ -43659,10 +43661,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="8">
-        <v>31.680440771349861</v>
+        <v>23.553910226746876</v>
       </c>
       <c r="C15" s="8">
-        <v>32.951945080091534</v>
+        <v>38.787878787878789</v>
       </c>
       <c r="D15" s="8">
         <v>29.249011857707508</v>
@@ -43679,10 +43681,10 @@
         <v>28</v>
       </c>
       <c r="B16" s="8">
-        <v>22.314049586776861</v>
+        <v>32.993984266543272</v>
       </c>
       <c r="C16" s="8">
-        <v>27.002288329519452</v>
+        <v>15.151515151515152</v>
       </c>
       <c r="D16" s="8">
         <v>23.320158102766801</v>
@@ -43699,10 +43701,10 @@
         <v>29</v>
       </c>
       <c r="B17" s="8">
-        <v>9.9173553719008272</v>
+        <v>29.477093937991672</v>
       </c>
       <c r="C17" s="8">
-        <v>8.9244851258581246</v>
+        <v>9.6969696969696972</v>
       </c>
       <c r="D17" s="8">
         <v>8.3003952569169961</v>
@@ -43719,10 +43721,10 @@
         <v>30</v>
       </c>
       <c r="B18" s="8">
-        <v>1.3774104683195594</v>
+        <v>11.059694585839889</v>
       </c>
       <c r="C18" s="8">
-        <v>0.45766590389016021</v>
+        <v>12.121212121212121</v>
       </c>
       <c r="D18" s="8">
         <v>1.5810276679841897</v>
@@ -43739,10 +43741,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="8">
-        <v>34.159779614325068</v>
+        <v>2.7764923646459971</v>
       </c>
       <c r="C19" s="8">
-        <v>30.205949656750576</v>
+        <v>23.636363636363637</v>
       </c>
       <c r="D19" s="8">
         <v>37.549407114624508</v>
@@ -43759,10 +43761,10 @@
         <v>31</v>
       </c>
       <c r="B20" s="8">
-        <v>0.55096418732782371</v>
+        <v>0.13882461823229986</v>
       </c>
       <c r="C20" s="8">
-        <v>0.45766590389016021</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -43789,10 +43791,10 @@
         <v>33</v>
       </c>
       <c r="B22" s="8">
-        <v>3.3057851239669422</v>
+        <v>0.32392410920869968</v>
       </c>
       <c r="C22" s="8">
-        <v>2.0594965675057209</v>
+        <v>0</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -43809,10 +43811,10 @@
         <v>34</v>
       </c>
       <c r="B23" s="8">
-        <v>0</v>
+        <v>0.13882461823229986</v>
       </c>
       <c r="C23" s="8">
-        <v>0.2288329519450801</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -43829,10 +43831,10 @@
         <v>35</v>
       </c>
       <c r="B24" s="8">
-        <v>15.977961432506888</v>
+        <v>26.330402591392875</v>
       </c>
       <c r="C24" s="8">
-        <v>16.933638443935926</v>
+        <v>50.303030303030305</v>
       </c>
       <c r="D24" s="8">
         <v>11.857707509881422</v>
@@ -43849,10 +43851,10 @@
         <v>36</v>
       </c>
       <c r="B25" s="8">
-        <v>42.424242424242422</v>
+        <v>47.107820453493751</v>
       </c>
       <c r="C25" s="8">
-        <v>40.274599542334094</v>
+        <v>23.030303030303031</v>
       </c>
       <c r="D25" s="8">
         <v>42.292490118577078</v>
@@ -43869,10 +43871,10 @@
         <v>37</v>
       </c>
       <c r="B26" s="8">
-        <v>11.84573002754821</v>
+        <v>5.876908838500694</v>
       </c>
       <c r="C26" s="8">
-        <v>8.9244851258581246</v>
+        <v>7.878787878787878</v>
       </c>
       <c r="D26" s="8">
         <v>9.0909090909090917</v>
@@ -43889,10 +43891,10 @@
         <v>38</v>
       </c>
       <c r="B27" s="8">
-        <v>21.212121212121211</v>
+        <v>14.854234150856085</v>
       </c>
       <c r="C27" s="8">
-        <v>28.375286041189931</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="D27" s="8">
         <v>20.948616600790515</v>
@@ -43909,10 +43911,10 @@
         <v>39</v>
       </c>
       <c r="B28" s="8">
-        <v>0.27548209366391185</v>
+        <v>0.55529847292919943</v>
       </c>
       <c r="C28" s="8">
-        <v>0.2288329519450801</v>
+        <v>0</v>
       </c>
       <c r="D28" s="8">
         <v>2.766798418972332</v>
@@ -43929,10 +43931,10 @@
         <v>31</v>
       </c>
       <c r="B29" s="8">
-        <v>4.9586776859504136</v>
+        <v>4.8125867653863956</v>
       </c>
       <c r="C29" s="8">
-        <v>2.9748283752860414</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="D29" s="8">
         <v>13.043478260869565</v>
@@ -43959,10 +43961,10 @@
         <v>42</v>
       </c>
       <c r="B31" s="8">
-        <v>27.27272727272727</v>
+        <v>9.6251735307727913</v>
       </c>
       <c r="C31" s="8">
-        <v>17.391304347826086</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="D31" s="8">
         <v>9.8814229249011856</v>
@@ -43979,10 +43981,10 @@
         <v>43</v>
       </c>
       <c r="B32" s="8">
+        <v>6.5247570569180926</v>
+      </c>
+      <c r="C32" s="8">
         <v>3.0303030303030303</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2.9748283752860414</v>
       </c>
       <c r="D32" s="8">
         <v>0.79051383399209485</v>
@@ -43999,10 +44001,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="8">
-        <v>13.774104683195592</v>
+        <v>10.36557149467839</v>
       </c>
       <c r="C33" s="8">
-        <v>22.883295194508012</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="D33" s="8">
         <v>16.205533596837945</v>
@@ -44019,10 +44021,10 @@
         <v>45</v>
       </c>
       <c r="B34" s="8">
-        <v>5.785123966942149</v>
+        <v>66.496992133271632</v>
       </c>
       <c r="C34" s="8">
-        <v>4.3478260869565215</v>
+        <v>10.303030303030303</v>
       </c>
       <c r="D34" s="8">
         <v>1.1857707509881421</v>
@@ -44039,10 +44041,10 @@
         <v>46</v>
       </c>
       <c r="B35" s="8">
-        <v>4.4077134986225897</v>
+        <v>0.41647385469689957</v>
       </c>
       <c r="C35" s="8">
-        <v>4.1189931350114417</v>
+        <v>0</v>
       </c>
       <c r="D35" s="8">
         <v>5.1383399209486171</v>
@@ -44059,10 +44061,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="8">
-        <v>30.303030303030305</v>
+        <v>3.7945395650161959</v>
       </c>
       <c r="C36" s="8">
-        <v>39.130434782608695</v>
+        <v>0</v>
       </c>
       <c r="D36" s="8">
         <v>35.573122529644266</v>
@@ -44079,10 +44081,10 @@
         <v>48</v>
       </c>
       <c r="B37" s="8">
-        <v>1.9283746556473829</v>
+        <v>2.4525682554372974</v>
       </c>
       <c r="C37" s="8">
-        <v>2.9748283752860414</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="D37" s="8">
         <v>0.79051383399209485</v>
@@ -44099,10 +44101,10 @@
         <v>49</v>
       </c>
       <c r="B38" s="8">
-        <v>1.6528925619834711</v>
+        <v>0.32392410920869968</v>
       </c>
       <c r="C38" s="8">
-        <v>1.3729977116704806</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="D38" s="8">
         <v>1.1857707509881421</v>
@@ -44118,12 +44120,8 @@
       <c r="A39" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="8">
-        <v>1.1019283746556474</v>
-      </c>
-      <c r="C39" s="8">
-        <v>1.8306636155606408</v>
-      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="8">
         <v>0.79051383399209485</v>
       </c>
@@ -44139,10 +44137,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="8">
-        <v>10.743801652892563</v>
+        <v>17.075428042572881</v>
       </c>
       <c r="C40" s="8">
-        <v>2.9748283752860414</v>
+        <v>6.0606060606060606</v>
       </c>
       <c r="D40" s="8">
         <v>28.458498023715418</v>
@@ -44158,8 +44156,12 @@
       <c r="A41" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="8">
+        <v>0.64784821841739937</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.60606060606060608</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -44169,10 +44171,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="8">
-        <v>22.03856749311295</v>
+        <v>1.8047200370198981</v>
       </c>
       <c r="C42" s="8">
-        <v>22.883295194508012</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="D42" s="8">
         <v>20.948616600790515</v>
@@ -44189,10 +44191,10 @@
         <v>142</v>
       </c>
       <c r="B43" s="8">
-        <v>15.702479338842975</v>
+        <v>1.4807959278111986</v>
       </c>
       <c r="C43" s="8">
-        <v>15.560640732265446</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="D43" s="8">
         <v>17.391304347826086</v>
@@ -44209,10 +44211,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="8">
-        <v>4.9586776859504136</v>
+        <v>5.9231837112447945</v>
       </c>
       <c r="C44" s="8">
-        <v>6.1784897025171626</v>
+        <v>2.4242424242424243</v>
       </c>
       <c r="D44" s="8">
         <v>4.7430830039525684</v>
@@ -44229,10 +44231,10 @@
         <v>143</v>
       </c>
       <c r="B45" s="8">
-        <v>7.1625344352617084</v>
+        <v>20.31466913465988</v>
       </c>
       <c r="C45" s="8">
-        <v>9.610983981693364</v>
+        <v>1.2121212121212122</v>
       </c>
       <c r="D45" s="8">
         <v>7.5098814229249005</v>
@@ -44249,10 +44251,10 @@
         <v>144</v>
       </c>
       <c r="B46" s="8">
-        <v>7.9889807162534439</v>
+        <v>11.568718186024988</v>
       </c>
       <c r="C46" s="8">
-        <v>5.4919908466819223</v>
+        <v>2.4242424242424243</v>
       </c>
       <c r="D46" s="8">
         <v>3.5573122529644272</v>
@@ -44269,10 +44271,10 @@
         <v>145</v>
       </c>
       <c r="B47" s="8">
-        <v>12.396694214876034</v>
+        <v>3.3780657103192966</v>
       </c>
       <c r="C47" s="8">
-        <v>11.441647597254006</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="D47" s="8">
         <v>5.1383399209486171</v>
@@ -44289,10 +44291,10 @@
         <v>146</v>
       </c>
       <c r="B48" s="8">
-        <v>10.46831955922865</v>
+        <v>9.254974548819991</v>
       </c>
       <c r="C48" s="8">
-        <v>15.331807780320366</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D48" s="8">
         <v>9.8814229249011856</v>
@@ -44309,10 +44311,10 @@
         <v>31</v>
       </c>
       <c r="B49" s="8">
-        <v>19.28374655647383</v>
+        <v>28.227672373900969</v>
       </c>
       <c r="C49" s="8">
-        <v>13.501144164759726</v>
+        <v>6.0606060606060606</v>
       </c>
       <c r="D49" s="8">
         <v>30.830039525691699</v>
@@ -44328,8 +44330,12 @@
       <c r="A50" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="8">
+        <v>0.32392410920869968</v>
+      </c>
+      <c r="C50" s="8">
+        <v>72.727272727272734</v>
+      </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -44338,12 +44344,8 @@
       <c r="A51" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="8">
-        <v>34.435261707988978</v>
-      </c>
-      <c r="C51" s="8">
-        <v>38.901601830663616</v>
-      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="8">
         <v>25.691699604743086</v>
       </c>
@@ -44359,10 +44361,10 @@
         <v>149</v>
       </c>
       <c r="B52" s="8">
-        <v>46.005509641873275</v>
+        <v>20.31466913465988</v>
       </c>
       <c r="C52" s="8">
-        <v>51.716247139588098</v>
+        <v>10.303030303030303</v>
       </c>
       <c r="D52" s="8">
         <v>49.802371541501977</v>
@@ -44379,10 +44381,10 @@
         <v>31</v>
       </c>
       <c r="B53" s="8">
-        <v>19.55922865013774</v>
+        <v>79.68533086534012</v>
       </c>
       <c r="C53" s="8">
-        <v>9.3821510297482842</v>
+        <v>89.696969696969703</v>
       </c>
       <c r="D53" s="8">
         <v>24.505928853754941</v>
@@ -44398,17 +44400,19 @@
       <c r="A54" s="49" t="s">
         <v>150</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="8">
-        <v>83.746556473829202</v>
-      </c>
-      <c r="C55" s="8">
-        <v>80.320366132723109</v>
-      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="8">
         <v>84.980237154150188</v>
       </c>
@@ -44423,12 +44427,8 @@
       <c r="A56" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="8">
-        <v>15.977961432506888</v>
-      </c>
-      <c r="C56" s="8">
-        <v>19.679633867276888</v>
-      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="8">
         <v>15.019762845849801</v>
       </c>
@@ -44443,12 +44443,8 @@
       <c r="A57" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="8">
-        <v>0.27548209366391185</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0</v>
-      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="8">
         <v>0</v>
       </c>
@@ -44463,51 +44459,211 @@
       <c r="A58" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="B58"/>
+      <c r="C58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>51</v>
       </c>
+      <c r="B59"/>
+      <c r="C59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>52</v>
       </c>
+      <c r="B60"/>
+      <c r="C60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>53</v>
       </c>
+      <c r="B61"/>
+      <c r="C61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>54</v>
       </c>
+      <c r="B62"/>
+      <c r="C62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>55</v>
       </c>
+      <c r="B63"/>
+      <c r="C63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>56</v>
       </c>
+      <c r="B64"/>
+      <c r="C64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>57</v>
       </c>
+      <c r="B65"/>
+      <c r="C65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>58</v>
       </c>
+      <c r="B66"/>
+      <c r="C66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>59</v>
       </c>
+      <c r="B67"/>
+      <c r="C67"/>
+    </row>
+    <row r="68">
+      <c r="B68"/>
+      <c r="C68"/>
+    </row>
+    <row r="69">
+      <c r="B69"/>
+      <c r="C69"/>
+    </row>
+    <row r="70">
+      <c r="B70"/>
+      <c r="C70"/>
+    </row>
+    <row r="71">
+      <c r="B71"/>
+      <c r="C71"/>
+    </row>
+    <row r="72">
+      <c r="B72"/>
+      <c r="C72"/>
+    </row>
+    <row r="73">
+      <c r="B73"/>
+      <c r="C73"/>
+    </row>
+    <row r="74">
+      <c r="B74"/>
+      <c r="C74"/>
+    </row>
+    <row r="75">
+      <c r="B75"/>
+      <c r="C75"/>
+    </row>
+    <row r="76">
+      <c r="B76"/>
+      <c r="C76"/>
+    </row>
+    <row r="77">
+      <c r="B77"/>
+      <c r="C77"/>
+    </row>
+    <row r="78">
+      <c r="B78"/>
+      <c r="C78"/>
+    </row>
+    <row r="79">
+      <c r="B79"/>
+      <c r="C79"/>
+    </row>
+    <row r="80">
+      <c r="B80"/>
+      <c r="C80"/>
+    </row>
+    <row r="81">
+      <c r="B81"/>
+      <c r="C81"/>
+    </row>
+    <row r="82">
+      <c r="B82"/>
+      <c r="C82"/>
+    </row>
+    <row r="83">
+      <c r="B83"/>
+      <c r="C83"/>
+    </row>
+    <row r="84">
+      <c r="B84"/>
+      <c r="C84"/>
+    </row>
+    <row r="85">
+      <c r="B85"/>
+      <c r="C85"/>
+    </row>
+    <row r="86">
+      <c r="B86"/>
+      <c r="C86"/>
+    </row>
+    <row r="87">
+      <c r="B87"/>
+      <c r="C87"/>
+    </row>
+    <row r="88">
+      <c r="B88"/>
+      <c r="C88"/>
+    </row>
+    <row r="89">
+      <c r="B89"/>
+      <c r="C89"/>
+    </row>
+    <row r="90">
+      <c r="B90"/>
+      <c r="C90"/>
+    </row>
+    <row r="91">
+      <c r="B91"/>
+      <c r="C91"/>
+    </row>
+    <row r="92">
+      <c r="B92"/>
+      <c r="C92"/>
+    </row>
+    <row r="93">
+      <c r="B93"/>
+      <c r="C93"/>
+    </row>
+    <row r="94">
+      <c r="B94"/>
+      <c r="C94"/>
+    </row>
+    <row r="95">
+      <c r="B95"/>
+      <c r="C95"/>
+    </row>
+    <row r="96">
+      <c r="B96"/>
+      <c r="C96"/>
+    </row>
+    <row r="97">
+      <c r="B97"/>
+      <c r="C97"/>
+    </row>
+    <row r="98">
+      <c r="B98"/>
+      <c r="C98"/>
+    </row>
+    <row r="99">
+      <c r="B99"/>
+      <c r="C99"/>
+    </row>
+    <row r="100">
+      <c r="B100"/>
+      <c r="C100"/>
+    </row>
+    <row r="101">
+      <c r="B101"/>
+      <c r="C101"/>
+    </row>
+    <row r="102">
+      <c r="B102"/>
+      <c r="C102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
